--- a/OpenWIS-Harvesting.xlsx
+++ b/OpenWIS-Harvesting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="3720" windowWidth="37000" windowHeight="22920" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="1580" windowWidth="39640" windowHeight="26740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,66 +18,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Nassos Michas</author>
-  </authors>
-  <commentList>
-    <comment ref="B14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nassos Michas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Did not start fetching (~30'). Could not stop it, had to restart Jetty.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nassos Michas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-WIS-GISC-SEOUL was only returning 1 record</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
   <si>
     <t>PROVIDER</t>
   </si>
@@ -130,9 +72,6 @@
     <t>http://wispi.meteo.fr/openwis-user-portal/srv/oaipmh</t>
   </si>
   <si>
-    <t>3.1.0-SNAPSHOT (develop/991048eb763a39ba3cf4cf4d88d23f19e391ea1b)</t>
-  </si>
-  <si>
     <t>time (sec)</t>
   </si>
   <si>
@@ -175,9 +114,6 @@
     <t>Seoul</t>
   </si>
   <si>
-    <t>Had to restart it multime times, so no accurate readings</t>
-  </si>
-  <si>
     <t>WIS-DCPC-EUMETSAT</t>
   </si>
   <si>
@@ -191,13 +127,34 @@
   </si>
   <si>
     <t>Spatial indexing disabled (using existing db)</t>
+  </si>
+  <si>
+    <t>WIS-GISC-SEOUL was only returning 1 record</t>
+  </si>
+  <si>
+    <t>Did not start fetching (~30'). Could not stop it, had to restart Jetty.  Request on http://www.gisc.kishou.go.jp/xsd/my19115-2/gmd/gmd.xsd failed.Connect to www.gisc.kishou.go.jp:80 [www.gisc.kishou.go.jp/210.238.177.82] failed: Operation timed out</t>
+  </si>
+  <si>
+    <t>3.1.0-SNAPSHOT (develop/991048eb763a39ba3cf4cf4d88d23f19e391ea1b) - Embedded Jetty/H2/Java7</t>
+  </si>
+  <si>
+    <t>3.1.0-SNAPSHOT (develop/2f56642b5e71ddd946ba8ca4a1d52a58323571d9) - Embedded Jetty/PostGIS (8 threads)/Java8</t>
+  </si>
+  <si>
+    <t>Had to restart it multiple times, so no accurate readings</t>
+  </si>
+  <si>
+    <t>3.1.0-SNAPSHOT (develop/2f56642b5e71ddd946ba8ca4a1d52a58323571d9) - Embedded Jetty/PostGIS (8 threads)/Java8 - Filesystem import</t>
+  </si>
+  <si>
+    <t>WIS-GISC-SEOUL was only returning 5 records</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -220,19 +177,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -300,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -425,8 +369,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="155">
+  <cellStyleXfs count="389">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -582,100 +563,299 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -683,69 +863,89 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="155">
+  <cellStyles count="389">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -865,6 +1065,123 @@
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
@@ -900,11 +1217,426 @@
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>HTTP</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$24:$G$31</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>WIS-GISC-TOULOUSE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WIS-GISC-MOSCOW</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WIS-GISC-MELBOURNE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WIS-GISC-BRASILIA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>WIS-GISC-TOKYO</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>WIS-GISC-BEIJING</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>WIS-DE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>WIS-GISC-EXETER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$24:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Filesystem</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$24:$G$31</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>WIS-GISC-TOULOUSE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WIS-GISC-MOSCOW</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>WIS-GISC-MELBOURNE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WIS-GISC-BRASILIA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>WIS-GISC-TOKYO</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>WIS-GISC-BEIJING</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>WIS-DE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>WIS-GISC-EXETER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$24:$J$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>37.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2114199928"/>
+        <c:axId val="-2114965960"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2114199928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2114965960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2114965960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Records</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>/ sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2114199928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>43794</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>69194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1559035</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>193566</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1228,14 +1960,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:A3"/>
+      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1245,483 +1977,871 @@
     <col min="3" max="3" width="10.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="21.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="21.33203125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:13" ht="16" customHeight="1" thickBot="1">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
-    </row>
-    <row r="2" spans="1:5" ht="50" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
-    </row>
-    <row r="3" spans="1:5" ht="16" thickBot="1">
-      <c r="A3" s="29"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="42"/>
+    </row>
+    <row r="2" spans="1:13" ht="50" customHeight="1">
+      <c r="A2" s="46"/>
+      <c r="B2" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
+    </row>
+    <row r="3" spans="1:13" ht="50" customHeight="1" thickBot="1">
+      <c r="A3" s="47"/>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="7" customFormat="1" ht="35" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="46">
+        <v>18</v>
+      </c>
+      <c r="C4" s="43">
         <v>2947</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="43">
         <v>674</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="28">
         <f>C4/D4</f>
         <v>4.3724035608308602</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="7" customFormat="1" ht="26">
+      <c r="F4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="43">
+        <v>3242</v>
+      </c>
+      <c r="H4" s="43">
+        <v>576</v>
+      </c>
+      <c r="I4" s="28">
+        <f>G4/H4</f>
+        <v>5.6284722222222223</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="43">
+        <v>3242</v>
+      </c>
+      <c r="L4" s="43">
+        <v>86</v>
+      </c>
+      <c r="M4" s="28">
+        <f>K4/L4</f>
+        <v>37.697674418604649</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="7" customFormat="1" ht="27" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="49"/>
-    </row>
-    <row r="6" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="51"/>
-    </row>
-    <row r="7" spans="1:5" s="7" customFormat="1" ht="16" thickBot="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="53"/>
-    </row>
-    <row r="8" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="10" t="s">
+      <c r="F5" s="25"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="29"/>
+    </row>
+    <row r="6" spans="1:13" s="7" customFormat="1">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="54">
+      <c r="B6" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="26">
         <v>3429</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D6" s="26">
         <v>1837</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E6" s="28">
+        <f>C6/D6</f>
+        <v>1.8666303756124116</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="26">
+        <v>3429</v>
+      </c>
+      <c r="H6" s="26">
+        <v>1393</v>
+      </c>
+      <c r="I6" s="28">
+        <f>G6/H6</f>
+        <v>2.4615936826992102</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="26">
+        <v>3429</v>
+      </c>
+      <c r="L6" s="26">
+        <v>82</v>
+      </c>
+      <c r="M6" s="28">
+        <f>K6/L6</f>
+        <v>41.81707317073171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="7" customFormat="1" ht="41" thickBot="1">
+      <c r="A7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="29"/>
+    </row>
+    <row r="8" spans="1:13" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="26">
+        <v>1113</v>
+      </c>
+      <c r="D8" s="26">
+        <v>454</v>
+      </c>
+      <c r="E8" s="28">
         <f>C8/D8</f>
-        <v>1.8666303756124116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" ht="41" thickBot="1">
-      <c r="A9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
-    </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="54">
+        <v>2.4515418502202642</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="26">
         <v>1113</v>
       </c>
-      <c r="D10" s="54">
-        <v>454</v>
-      </c>
-      <c r="E10" s="47">
+      <c r="H8" s="26"/>
+      <c r="I8" s="28" t="e">
+        <f>G8/H8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="26">
+        <v>1113</v>
+      </c>
+      <c r="L8" s="26">
+        <v>54</v>
+      </c>
+      <c r="M8" s="28">
+        <f>K8/L8</f>
+        <v>20.611111111111111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="7" customFormat="1" ht="28" thickBot="1">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="29"/>
+    </row>
+    <row r="10" spans="1:13" s="7" customFormat="1">
+      <c r="A10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="26">
+        <v>557</v>
+      </c>
+      <c r="D10" s="26">
+        <v>836</v>
+      </c>
+      <c r="E10" s="28">
         <f>C10/D10</f>
-        <v>2.4515418502202642</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="7" customFormat="1" ht="28" thickBot="1">
+        <v>0.66626794258373201</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="26">
+        <v>557</v>
+      </c>
+      <c r="H10" s="26">
+        <v>321</v>
+      </c>
+      <c r="I10" s="28">
+        <f>G10/H10</f>
+        <v>1.7352024922118381</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="26">
+        <v>557</v>
+      </c>
+      <c r="L10" s="26">
+        <v>15</v>
+      </c>
+      <c r="M10" s="28">
+        <f>K10/L10</f>
+        <v>37.133333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="7" customFormat="1" ht="16" thickBot="1">
       <c r="A11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="56"/>
-    </row>
-    <row r="12" spans="1:5" s="7" customFormat="1">
+        <v>15</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="29"/>
+    </row>
+    <row r="12" spans="1:13" s="7" customFormat="1">
       <c r="A12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="J12" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="26">
+        <v>24419</v>
+      </c>
+      <c r="L12" s="26">
+        <v>664</v>
+      </c>
+      <c r="M12" s="28">
+        <f>K12/L12</f>
+        <v>36.775602409638552</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="7" customFormat="1" ht="28" thickBot="1">
+      <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="54">
-        <v>557</v>
-      </c>
-      <c r="D12" s="54">
-        <v>836</v>
-      </c>
-      <c r="E12" s="47">
-        <f>C12/D12</f>
-        <v>0.66626794258373201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" ht="16" thickBot="1">
-      <c r="A13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="56"/>
-    </row>
-    <row r="14" spans="1:5" s="7" customFormat="1">
+      <c r="B13" s="25"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="29"/>
+    </row>
+    <row r="14" spans="1:13" s="7" customFormat="1">
       <c r="A14" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="47"/>
-    </row>
-    <row r="15" spans="1:5" s="7" customFormat="1" ht="28" thickBot="1">
+      <c r="C14" s="26">
+        <v>61600</v>
+      </c>
+      <c r="D14" s="26">
+        <v>69388</v>
+      </c>
+      <c r="E14" s="28">
+        <f>C14/D14</f>
+        <v>0.88776157260621436</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="26">
+        <v>61600</v>
+      </c>
+      <c r="L14" s="26">
+        <v>2504</v>
+      </c>
+      <c r="M14" s="28">
+        <f>K14/L14</f>
+        <v>24.600638977635782</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="7" customFormat="1" ht="16" thickBot="1">
       <c r="A15" s="11" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="56"/>
-    </row>
-    <row r="16" spans="1:5" s="7" customFormat="1">
-      <c r="A16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="24" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="29"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="29"/>
+    </row>
+    <row r="16" spans="1:13" s="7" customFormat="1">
+      <c r="A16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="54">
-        <v>61600</v>
-      </c>
-      <c r="D16" s="54">
-        <v>69388</v>
-      </c>
-      <c r="E16" s="47">
+      <c r="C16" s="26">
+        <v>30245</v>
+      </c>
+      <c r="D16" s="26">
+        <v>65094</v>
+      </c>
+      <c r="E16" s="28">
         <f>C16/D16</f>
-        <v>0.88776157260621436</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="7" customFormat="1" ht="16" thickBot="1">
-      <c r="A17" s="11" t="s">
+        <v>0.46463575751989433</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="26">
+        <v>30415</v>
+      </c>
+      <c r="L16" s="26">
+        <v>869</v>
+      </c>
+      <c r="M16" s="28">
+        <f>K16/L16</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="7" customFormat="1" ht="16" thickBot="1">
+      <c r="A17" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
-    </row>
-    <row r="18" spans="1:5" s="7" customFormat="1">
+      <c r="B17" s="37"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="29"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="29"/>
+    </row>
+    <row r="18" spans="1:13" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="54">
-        <v>30245</v>
-      </c>
-      <c r="D18" s="54">
-        <v>65094</v>
-      </c>
-      <c r="E18" s="47">
-        <f>C18/D18</f>
-        <v>0.46463575751989433</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="7" customFormat="1" ht="16" thickBot="1">
-      <c r="A19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
-    </row>
-    <row r="20" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="12" t="s">
-        <v>31</v>
+      <c r="B18" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="J18" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" s="30"/>
+      <c r="M18" s="31"/>
+    </row>
+    <row r="19" spans="1:13" s="7" customFormat="1" ht="28" thickBot="1">
+      <c r="A19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="33"/>
+    </row>
+    <row r="20" spans="1:13" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="22"/>
-    </row>
-    <row r="21" spans="1:5" s="7" customFormat="1" ht="28" thickBot="1">
-      <c r="A21" s="6" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="C20" s="26">
+        <v>17033</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="J20" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="26">
+        <v>17033</v>
+      </c>
+      <c r="L20" s="26">
+        <v>880</v>
+      </c>
+      <c r="M20" s="28">
+        <f>K20/L20</f>
+        <v>19.355681818181818</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="7" customFormat="1" ht="27" thickBot="1">
+      <c r="A21" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="23"/>
-    </row>
-    <row r="22" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="29"/>
+    </row>
+    <row r="22" spans="1:13" s="7" customFormat="1">
       <c r="A22" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="54">
-        <v>17033</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="37"/>
-    </row>
-    <row r="23" spans="1:5" s="7" customFormat="1" ht="27" thickBot="1">
+        <v>31</v>
+      </c>
+      <c r="C22" s="43">
+        <v>21</v>
+      </c>
+      <c r="D22" s="43">
+        <v>80</v>
+      </c>
+      <c r="E22" s="28">
+        <f>C22/D22</f>
+        <v>0.26250000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="7" customFormat="1" ht="27" thickBot="1">
       <c r="A23" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B23" s="25"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="38"/>
-    </row>
-    <row r="24" spans="1:5" s="7" customFormat="1">
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="29"/>
+    </row>
+    <row r="24" spans="1:13" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="46">
-        <v>21</v>
-      </c>
-      <c r="D24" s="46">
-        <v>80</v>
-      </c>
-      <c r="E24" s="47">
+        <v>32</v>
+      </c>
+      <c r="C24" s="43">
+        <v>248</v>
+      </c>
+      <c r="D24" s="43">
+        <v>724</v>
+      </c>
+      <c r="E24" s="28">
         <f>C24/D24</f>
-        <v>0.26250000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="7" customFormat="1" ht="27" thickBot="1">
+        <v>0.34254143646408841</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="7">
+        <v>4.37</v>
+      </c>
+      <c r="J24" s="7">
+        <v>37.700000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="7" customFormat="1" ht="27" thickBot="1">
       <c r="A25" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="25"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="56"/>
-    </row>
-    <row r="26" spans="1:5" s="7" customFormat="1">
-      <c r="A26" s="9" t="s">
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="29"/>
+      <c r="G25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1.87</v>
+      </c>
+      <c r="J25" s="7">
+        <v>41.82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="7" customFormat="1" ht="16" customHeight="1" thickBot="1">
+      <c r="A26" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="18">
+        <f>SUM(C4:C23)</f>
+        <v>116945</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
+      <c r="G26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="J26" s="7">
+        <v>20.61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="7" customFormat="1" ht="16" thickBot="1">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="G27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="J27" s="7">
+        <v>37.130000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1">
+      <c r="A28" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="G28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7">
+        <v>36.78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="7" customFormat="1" ht="16" customHeight="1">
+      <c r="A29" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="46">
-        <v>248</v>
-      </c>
-      <c r="D26" s="46">
-        <v>724</v>
-      </c>
-      <c r="E26" s="47">
-        <f>C26/D26</f>
-        <v>0.34254143646408841</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="7" customFormat="1" ht="27" thickBot="1">
-      <c r="A27" s="8" t="s">
+      <c r="B29" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="51">
+        <v>2947</v>
+      </c>
+      <c r="D29" s="30">
+        <v>818</v>
+      </c>
+      <c r="E29" s="38">
+        <f>C29/D29</f>
+        <v>3.6026894865525674</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="J29" s="7">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="7" customFormat="1" ht="27" thickBot="1">
+      <c r="A30" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="56"/>
-    </row>
-    <row r="28" spans="1:5" s="7" customFormat="1" ht="16" thickBot="1">
-      <c r="A28" s="42" t="s">
+      <c r="B30" s="25"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="39"/>
+      <c r="G30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="J30" s="7">
         <v>35</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="43">
-        <f>SUM(C4:C25)</f>
-        <v>116945</v>
-      </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="45"/>
-    </row>
-    <row r="29" spans="1:5" s="7" customFormat="1" ht="16" thickBot="1">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
-    </row>
-    <row r="30" spans="1:5" s="7" customFormat="1" ht="16" thickBot="1">
-      <c r="A30" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-    </row>
-    <row r="31" spans="1:5" s="7" customFormat="1">
+    </row>
+    <row r="31" spans="1:13" s="7" customFormat="1">
       <c r="A31" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="18">
-        <v>2947</v>
-      </c>
-      <c r="D31" s="20">
-        <v>818</v>
-      </c>
-      <c r="E31" s="22">
+        <v>32</v>
+      </c>
+      <c r="C31" s="51">
+        <v>248</v>
+      </c>
+      <c r="D31" s="30">
+        <v>74</v>
+      </c>
+      <c r="E31" s="38">
         <f>C31/D31</f>
-        <v>3.6026894865525674</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="7" customFormat="1" ht="27" thickBot="1">
+        <v>3.3513513513513513</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7">
+        <v>19.36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A32" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="25"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="23"/>
-    </row>
-    <row r="33" spans="1:5" s="7" customFormat="1">
-      <c r="A33" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="18">
-        <v>248</v>
-      </c>
-      <c r="D33" s="20">
-        <v>74</v>
-      </c>
-      <c r="E33" s="22">
-        <f>C33/D33</f>
-        <v>3.3513513513513513</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="7" customFormat="1" ht="27" thickBot="1">
-      <c r="A34" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="23"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="39"/>
+    </row>
+    <row r="33" spans="1:10" s="7" customFormat="1">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A30:E30"/>
+  <mergeCells count="104">
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:M19"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:E23"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="C18:E19"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="C12:E13"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J10:J11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/OpenWIS-Harvesting.xlsx
+++ b/OpenWIS-Harvesting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="1580" windowWidth="39640" windowHeight="26740" tabRatio="500"/>
+    <workbookView xWindow="340" yWindow="420" windowWidth="39640" windowHeight="26740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
   <si>
     <t>PROVIDER</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>WIS-GISC-SEOUL was only returning 5 records</t>
+  </si>
+  <si>
+    <t>It was very slow, had to restart multiple times.</t>
   </si>
 </sst>
 </file>
@@ -798,7 +801,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -888,16 +891,46 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -905,30 +938,6 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -938,11 +947,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="389">
@@ -1523,11 +1532,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2114199928"/>
-        <c:axId val="-2114965960"/>
+        <c:axId val="-2066161896"/>
+        <c:axId val="-2099448872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2114199928"/>
+        <c:axId val="-2066161896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1536,7 +1545,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114965960"/>
+        <c:crossAx val="-2099448872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1544,7 +1553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2114965960"/>
+        <c:axId val="-2099448872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1582,7 +1591,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114199928"/>
+        <c:crossAx val="-2066161896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1967,7 +1976,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomRight" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1987,51 +1996,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16" customHeight="1" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="40" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="40" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="50" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="40" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="40" t="s">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" spans="1:13" ht="50" customHeight="1" thickBot="1">
-      <c r="A3" s="47"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
@@ -2076,10 +2085,10 @@
       <c r="B4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="44">
         <v>2947</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="44">
         <v>674</v>
       </c>
       <c r="E4" s="28">
@@ -2089,10 +2098,10 @@
       <c r="F4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="44">
         <v>3242</v>
       </c>
-      <c r="H4" s="43">
+      <c r="H4" s="44">
         <v>576</v>
       </c>
       <c r="I4" s="28">
@@ -2102,10 +2111,10 @@
       <c r="J4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="43">
+      <c r="K4" s="44">
         <v>3242</v>
       </c>
-      <c r="L4" s="43">
+      <c r="L4" s="44">
         <v>86</v>
       </c>
       <c r="M4" s="28">
@@ -2117,17 +2126,17 @@
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="25"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
       <c r="I5" s="29"/>
       <c r="J5" s="25"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
       <c r="M5" s="29"/>
     </row>
     <row r="6" spans="1:13" s="7" customFormat="1">
@@ -2195,7 +2204,7 @@
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="36" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="26">
@@ -2208,18 +2217,17 @@
         <f>C8/D8</f>
         <v>2.4515418502202642</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="36" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="26">
         <v>1113</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="28" t="e">
-        <f>G8/H8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="34" t="s">
+      <c r="H8" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="48"/>
+      <c r="J8" s="36" t="s">
         <v>20</v>
       </c>
       <c r="K8" s="26">
@@ -2237,15 +2245,15 @@
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="29"/>
-      <c r="F9" s="35"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="35"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="37"/>
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
       <c r="M9" s="29"/>
@@ -2254,7 +2262,7 @@
       <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="34" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="26">
@@ -2267,7 +2275,7 @@
         <f>C10/D10</f>
         <v>0.66626794258373201</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="34" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="26">
@@ -2280,7 +2288,7 @@
         <f>G10/H10</f>
         <v>1.7352024922118381</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="34" t="s">
         <v>25</v>
       </c>
       <c r="K10" s="26">
@@ -2298,15 +2306,15 @@
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="37"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="29"/>
-      <c r="F11" s="37"/>
+      <c r="F11" s="35"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="37"/>
+      <c r="J11" s="35"/>
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
       <c r="M11" s="29"/>
@@ -2323,7 +2331,7 @@
       </c>
       <c r="D12" s="30"/>
       <c r="E12" s="31"/>
-      <c r="J12" s="36" t="s">
+      <c r="J12" s="34" t="s">
         <v>27</v>
       </c>
       <c r="K12" s="26">
@@ -2345,7 +2353,7 @@
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="33"/>
-      <c r="J13" s="37"/>
+      <c r="J13" s="35"/>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="29"/>
@@ -2398,7 +2406,7 @@
       <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="34" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="26">
@@ -2411,7 +2419,7 @@
         <f>C16/D16</f>
         <v>0.46463575751989433</v>
       </c>
-      <c r="J16" s="36" t="s">
+      <c r="J16" s="34" t="s">
         <v>29</v>
       </c>
       <c r="K16" s="26">
@@ -2429,11 +2437,11 @@
       <c r="A17" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="37"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="29"/>
-      <c r="J17" s="37"/>
+      <c r="J17" s="35"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
       <c r="M17" s="29"/>
@@ -2520,24 +2528,28 @@
       <c r="B22" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="43">
+      <c r="C22" s="44">
         <v>21</v>
       </c>
-      <c r="D22" s="43">
+      <c r="D22" s="44">
         <v>80</v>
       </c>
       <c r="E22" s="28">
         <f>C22/D22</f>
         <v>0.26250000000000001</v>
       </c>
+      <c r="K22" s="7">
+        <f>SUM(K4:K17,K20)</f>
+        <v>141808</v>
+      </c>
     </row>
     <row r="23" spans="1:13" s="7" customFormat="1" ht="27" thickBot="1">
       <c r="A23" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="25"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="29"/>
     </row>
     <row r="24" spans="1:13" s="7" customFormat="1" ht="15" customHeight="1">
@@ -2547,10 +2559,10 @@
       <c r="B24" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="43">
+      <c r="C24" s="44">
         <v>248</v>
       </c>
-      <c r="D24" s="43">
+      <c r="D24" s="44">
         <v>724</v>
       </c>
       <c r="E24" s="28">
@@ -2572,8 +2584,8 @@
         <v>16</v>
       </c>
       <c r="B25" s="25"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
       <c r="E25" s="29"/>
       <c r="G25" s="7" t="s">
         <v>22</v>
@@ -2647,13 +2659,13 @@
       <c r="B29" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="51">
+      <c r="C29" s="46">
         <v>2947</v>
       </c>
       <c r="D29" s="30">
         <v>818</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="48">
         <f>C29/D29</f>
         <v>3.6026894865525674</v>
       </c>
@@ -2672,9 +2684,9 @@
         <v>16</v>
       </c>
       <c r="B30" s="25"/>
-      <c r="C30" s="52"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="32"/>
-      <c r="E30" s="39"/>
+      <c r="E30" s="49"/>
       <c r="G30" s="7" t="s">
         <v>29</v>
       </c>
@@ -2692,13 +2704,13 @@
       <c r="B31" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="51">
+      <c r="C31" s="46">
         <v>248</v>
       </c>
       <c r="D31" s="30">
         <v>74</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="48">
         <f>C31/D31</f>
         <v>3.3513513513513513</v>
       </c>
@@ -2717,9 +2729,9 @@
         <v>16</v>
       </c>
       <c r="B32" s="25"/>
-      <c r="C32" s="52"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="32"/>
-      <c r="E32" s="39"/>
+      <c r="E32" s="49"/>
     </row>
     <row r="33" spans="1:10" s="7" customFormat="1">
       <c r="A33" s="1"/>
@@ -2733,47 +2745,48 @@
       <c r="J33" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="104">
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:M19"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
+  <mergeCells count="103">
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="C12:E13"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="C18:E19"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="A1:A3"/>
@@ -2798,46 +2811,44 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C18:E19"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="C12:E13"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:M19"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
